--- a/Munkafüzet2_mentés.xlsx
+++ b/Munkafüzet2_mentés.xlsx
@@ -150,7 +150,7 @@
     <t>36220252000</t>
   </si>
   <si>
-    <t>szélesség</t>
+    <t>Szélesség</t>
   </si>
 </sst>
 </file>
@@ -372,10 +372,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
       <c r="AF5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AG5" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>6</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>6</v>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="Z7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="5">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>6</v>
@@ -1243,7 +1243,7 @@
       <c r="AF8" s="14">
         <v>0</v>
       </c>
-      <c r="AG8" s="19">
+      <c r="AG8" s="18">
         <v>21</v>
       </c>
     </row>

--- a/Munkafüzet2_mentés.xlsx
+++ b/Munkafüzet2_mentés.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>10007304192</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Szélesség</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Ft</t>
   </si>
 </sst>
 </file>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,19 +719,20 @@
     <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -741,18 +754,19 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="2"/>
+      <c r="W1" s="1"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="1"/>
+      <c r="Z1" s="2"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -774,18 +788,19 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="2"/>
+      <c r="W2" s="1"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -807,18 +822,19 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="2"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -840,18 +856,19 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="2"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -918,41 +935,44 @@
       <c r="V5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AA5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AB5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AC5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AE5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AF5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AG5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AG5" s="19" t="s">
+      <c r="AH5" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
@@ -1019,21 +1039,19 @@
       <c r="V6" s="5">
         <v>20</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="W6" s="5"/>
       <c r="X6" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="5">
         <v>4</v>
       </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
       <c r="AB6" s="5">
         <v>0</v>
       </c>
@@ -1046,11 +1064,14 @@
       <c r="AE6" s="5">
         <v>0</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
@@ -1115,21 +1136,19 @@
       <c r="V7" s="5">
         <v>2.5</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="W7" s="5"/>
       <c r="X7" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="5">
         <v>3</v>
       </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
       <c r="AB7" s="5">
         <v>0</v>
       </c>
@@ -1142,11 +1161,14 @@
       <c r="AE7" s="5">
         <v>0</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>8</v>
       </c>
@@ -1213,21 +1235,19 @@
       <c r="V8" s="8">
         <v>0.15</v>
       </c>
-      <c r="W8" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="W8" s="8"/>
       <c r="X8" s="6" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="8">
         <v>4</v>
       </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
       <c r="AB8" s="8">
         <v>0</v>
       </c>
@@ -1240,10 +1260,13 @@
       <c r="AE8" s="8">
         <v>0</v>
       </c>
-      <c r="AF8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="18">
+      <c r="AF8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="18">
         <v>21</v>
       </c>
     </row>
